--- a/VL.Research/XMLConfig/DeathMonitorUnder5Organization/5岁以下儿童死亡监测表.xlsx
+++ b/VL.Research/XMLConfig/DeathMonitorUnder5Organization/5岁以下儿童死亡监测表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>5岁以下儿童死亡监测表</t>
   </si>
@@ -411,7 +411,13 @@
     <t xml:space="preserve">填报单位    </t>
   </si>
   <si>
+    <t>@DataUser_FuWuJGMC</t>
+  </si>
+  <si>
     <t>填报人</t>
+  </si>
+  <si>
+    <t>@DataUser_name</t>
   </si>
   <si>
     <t>填报日期</t>
@@ -500,9 +506,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -580,22 +586,83 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,55 +676,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,55 +700,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,181 +768,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,15 +1072,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1090,6 +1087,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1100,6 +1108,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1122,26 +1145,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,10 +1168,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1174,133 +1180,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -2026,7 +2032,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L11" sqref="L11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2471,21 +2477,25 @@
       <c r="C11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="K11" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
+        <v>45</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="28"/>
       <c r="U11" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V11" s="39"/>
       <c r="W11" s="27"/>
@@ -2514,7 +2524,7 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:27">
       <c r="A13" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2545,7 +2555,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:27">
       <c r="A14" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2576,7 +2586,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="2:7">
       <c r="B15" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -2586,12 +2596,12 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:1">
       <c r="A16" s="31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
